--- a/StructureDefinition-ext-R5-MedicationDispense.performer.xlsx
+++ b/StructureDefinition-ext-R5-MedicationDispense.performer.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="140">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -405,15 +405,6 @@
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A code describing the role an individual played in dispensing a medication.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-medicationdispense-performer-function-for-R4</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -455,7 +446,7 @@
     <t>Extension.extension:actor.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam)
 </t>
   </si>
   <si>
@@ -816,8 +807,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.51171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="75.68359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1733,31 +1724,31 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1769,7 +1760,7 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>120</v>
@@ -1777,13 +1768,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1808,14 +1799,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1884,7 +1875,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -1987,7 +1978,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2092,7 +2083,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2135,7 +2126,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2197,7 +2188,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>122</v>
@@ -2223,13 +2214,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2280,7 +2271,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2292,7 +2283,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>120</v>
@@ -2405,10 +2396,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2431,13 +2422,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2488,7 +2479,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2500,7 +2491,7 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>120</v>
